--- a/Fragen-checkbox.xlsx
+++ b/Fragen-checkbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9AA588-5E90-4412-B5AA-537798D5A224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76BBB57-435F-436F-949C-684DF11DEBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Fragen-checkbox.xlsx
+++ b/Fragen-checkbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76BBB57-435F-436F-949C-684DF11DEBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF95FAF-65CE-4CD4-9BA9-BF15B26D5D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -303,13 +303,16 @@
     <t>Sie haben das Fragebogenende erreicht. Beenden Sie mit JA.</t>
   </si>
   <si>
-    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>Keine:checkbox;AMA:checkbox;ÖPUL:checkbox;Sonstige:checkbox;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
   <si>
-    <t>Erwerbsart:checkbox(Vollerwerb, Nebenerwerb):pflicht</t>
+    <t>Name/Firma:text|pflicht;Anschrift:text|pflicht;Steuernummer:text|pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)|pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Erwerbsart:checkbox(Vollerwerb,Nebenerwerb)|optional</t>
+  </si>
+  <si>
+    <t>Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -741,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -789,7 +792,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -809,7 +812,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>

--- a/Fragen-checkbox.xlsx
+++ b/Fragen-checkbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF95FAF-65CE-4CD4-9BA9-BF15B26D5D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F77A1C-2FEC-439D-B527-812B7B412CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -303,16 +303,16 @@
     <t>Sie haben das Fragebogenende erreicht. Beenden Sie mit JA.</t>
   </si>
   <si>
-    <t>Keine:checkbox;AMA:checkbox;ÖPUL:checkbox;Sonstige:checkbox;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+    <t>Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
   </si>
   <si>
     <t>Name/Firma:text|pflicht;Anschrift:text|pflicht;Steuernummer:text|pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)|pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox|pflicht</t>
   </si>
   <si>
-    <t>Erwerbsart:checkbox(Vollerwerb,Nebenerwerb)|optional</t>
-  </si>
-  <si>
-    <t>Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+    <t>Erwerbsart:mcheckbox(Vollerwerb,Nebenerwerb)|pflicht</t>
+  </si>
+  <si>
+    <t>Förderungen:mcheckbox(keine,AMA,ÖPUL,Sonstige);Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -792,7 +792,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -812,7 +812,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>

--- a/Fragen-checkbox.xlsx
+++ b/Fragen-checkbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F77A1C-2FEC-439D-B527-812B7B412CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC9D41-E816-454E-8611-BB5B2A329458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="450" yWindow="1073" windowWidth="18825" windowHeight="11055" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -312,7 +312,10 @@
     <t>Erwerbsart:mcheckbox(Vollerwerb,Nebenerwerb)|pflicht</t>
   </si>
   <si>
-    <t>Förderungen:mcheckbox(keine,AMA,ÖPUL,Sonstige);Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+    <t>Förderungen:mcheckbox(keine,AMA,ÖPUL,Sonstige);Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Richtig-und-Vollständig:checkbox|pflicht</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -832,7 +835,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -852,7 +855,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -872,7 +875,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -892,7 +895,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -911,8 +914,8 @@
       <c r="C11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
-        <v>83</v>
+      <c r="D11" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -932,7 +935,7 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>

--- a/Fragen-checkbox.xlsx
+++ b/Fragen-checkbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC9D41-E816-454E-8611-BB5B2A329458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E56AC-6AA2-43FB-9246-768EA3174F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1073" windowWidth="18825" windowHeight="11055" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="18510" yWindow="-15660" windowWidth="21600" windowHeight="11055" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -309,13 +309,13 @@
     <t>Name/Firma:text|pflicht;Anschrift:text|pflicht;Steuernummer:text|pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)|pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox|pflicht</t>
   </si>
   <si>
-    <t>Erwerbsart:mcheckbox(Vollerwerb,Nebenerwerb)|pflicht</t>
-  </si>
-  <si>
     <t>Förderungen:mcheckbox(keine,AMA,ÖPUL,Sonstige);Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
   </si>
   <si>
     <t>Richtig-und-Vollständig:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Erwerbsart:mcheckbox(Vollerwerb,Nebenerwerb)</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -762,7 +762,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -815,7 +815,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -935,7 +935,7 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
